--- a/biology/Botanique/Melosira_nummuloides/Melosira_nummuloides.xlsx
+++ b/biology/Botanique/Melosira_nummuloides/Melosira_nummuloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melosira nummuloides[2],[3] est une espèce d’algues unicellulaires de la famille des Melosiraceae, dans la division des Bacillariophyta. C’est l’espèce type du genre Melosira[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melosira nummuloides, est une espèce d’algues unicellulaires de la famille des Melosiraceae, dans la division des Bacillariophyta. C’est l’espèce type du genre Melosira.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melosira nummuloides présente une symétrie radiale, elle fait donc partie du groupe des diatomées centriques. 
 La diamètre de ces cellules cylindriques oscille entre 10 et 14 µm. Elles sont entourées d'une carina (qui est une structure plate en forme de collier) et constituées de gouttelettes lipidiques, de plastes et d'un noyau. Cette algue fait partie des phytoplanctons qui ont une paroi cellulaire siliceuse : le frustule.
@@ -543,7 +557,9 @@
           <t>Milieu et mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette algue marine vit à la surface du substrat. C'est un organisme épibenthique qu'on retrouve dans l'eau froide, saumâtre et salée.
 </t>
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce faisant partie des diatomées centriques, la fécondation se fait par oogamie. Le gamète mâle, mobile grâce à son flagelle, rejoint le gamète femelle (immobile dans le frustule) en pénétrant dans l'oogone par une fissure du frustule.
 </t>
@@ -605,11 +623,13 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melosira nummuloides a pour synonyme selon AlgaeBase                                           (6 mars 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melosira nummuloides a pour synonyme selon AlgaeBase                                           (6 mars 2021) :
 Melosira nummularioides Chevalier 1836
-Melosira nummuloides n’est pas synonyme de Melosira discigera (Dillwyn) C.Agardh 1824 qui a pour basionyme Conferva nummuloides Dillwyn[1] (synonyme remplacé).
+Melosira nummuloides n’est pas synonyme de Melosira discigera (Dillwyn) C.Agardh 1824 qui a pour basionyme Conferva nummuloides Dillwyn (synonyme remplacé).
 </t>
         </is>
       </c>
